--- a/DataRepo/data/tests/multiple_labels/animal_sample_table.xlsx
+++ b/DataRepo/data/tests/multiple_labels/animal_sample_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rleach/PROJECT-local/TRACEBASE/tracebase/DataRepo/data/tests/multiple_labels/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC68492D-C896-7B48-8F8E-EE44F4E7487F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C6EBE6B-757B-DC40-903D-2BB10F5BA285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35200" windowHeight="14240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="99">
   <si>
     <t>Animal ID</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>xenograft tumor of HCT116 cells</t>
+  </si>
+  <si>
+    <t>xzl5_t</t>
   </si>
 </sst>
 </file>
@@ -4049,7 +4052,7 @@
         <v>150</v>
       </c>
       <c r="F4" s="4" t="str">
-        <f t="shared" ref="F4:F6" si="1">LEFT(A4,4)</f>
+        <f t="shared" ref="F4:F7" si="1">LEFT(A4,4)</f>
         <v>xzl4</v>
       </c>
       <c r="G4" s="9"/>
@@ -4125,13 +4128,26 @@
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="8">
+        <v>44034</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="4">
+        <v>150</v>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>xzl5</v>
+      </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
@@ -10496,13 +10512,9 @@
     <row r="1048423" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1048424" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" prompt="Each sample name must be unique" sqref="A1 A7:A634" xr:uid="{74EC890E-CF55-4F4E-94C4-C0FD0643B575}">
+  <dataValidations count="4">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" prompt="Each sample name must be unique" sqref="A1 A8:A634" xr:uid="{74EC890E-CF55-4F4E-94C4-C0FD0643B575}">
       <formula1>COUNTIF($A:$A,"="&amp;A1)  &lt; 2</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B7" xr:uid="{2F4497AB-D32E-1B40-8CD5-53A909D0F29D}">
-      <formula1>OR(NOT(ISERROR(DATEVALUE(B3))), AND(ISNUMBER(B3), LEFT(CELL("format", B3))="D"))</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="B8:B89 B92:B161" xr:uid="{8A25D235-BD61-F044-9C59-0E31E35D0F49}">
@@ -10530,16 +10542,16 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D7:D634</xm:sqref>
+          <xm:sqref>D8:D634</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Animal ID must match one from the &quot;Animals&quot; sheet" xr:uid="{2E058FED-E15B-874B-A650-480956D342E0}">
           <x14:formula1>
-            <xm:f>Animals!$A$2:$A975</xm:f>
+            <xm:f>Animals!$A$2:$A976</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>F7:F634</xm:sqref>
+          <xm:sqref>F8:F634</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
